--- a/app/outputs/solver_options.xlsx
+++ b/app/outputs/solver_options.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Solver Options" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,11 @@
           <t>matches</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,6 +462,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,6 +475,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -481,6 +488,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -493,6 +501,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -505,6 +514,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -517,6 +527,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -529,6 +540,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -541,6 +553,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -553,6 +566,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -565,6 +579,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -577,6 +592,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -589,6 +605,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -601,6 +620,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -613,6 +633,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -625,6 +646,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -637,6 +659,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -649,6 +672,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -661,6 +685,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -673,6 +700,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -685,6 +713,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -697,6 +726,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -709,6 +739,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +752,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -733,6 +765,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -745,6 +778,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -757,6 +791,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -769,6 +804,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -781,6 +817,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -793,6 +832,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -805,6 +845,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -817,6 +858,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -829,6 +871,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -841,6 +884,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -853,6 +897,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -865,6 +910,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -877,6 +923,7 @@
           <t>None</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
